--- a/Propeller Packages/APC_11x4/Prop_sections.xlsx
+++ b/Propeller Packages/APC_11x4/Prop_sections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olddominion-my.sharepoint.com/personal/ekonu001_odu_edu/Documents/PhD ODU/Post PhD - New Work/BEMT + Free-Wake/Propeller Packages/APC_11x4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olddominion-my.sharepoint.com/personal/ekonu001_odu_edu/Documents/PhD ODU/Post PhD - New Work/BEMT + Free-Wake/VortexBlade Exc/Propeller Packages/APC_11x4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="8_{8E92A1BF-0622-49A5-B6C3-CC8229BC9A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E943E532-2C7D-49D3-8572-B280BCCB4AC3}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{8E92A1BF-0622-49A5-B6C3-CC8229BC9A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{754904E7-E41B-435E-8739-6B382F5E0A82}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{5615C66F-3B0A-41D0-BEB5-068B53D4D7A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5615C66F-3B0A-41D0-BEB5-068B53D4D7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,25 +40,25 @@
     <t>Delta r =</t>
   </si>
   <si>
-    <t>span(y) =</t>
-  </si>
-  <si>
     <t>span(r/R) =</t>
-  </si>
-  <si>
-    <t>chord(x) =</t>
-  </si>
-  <si>
-    <t>Beta(deg) =</t>
-  </si>
-  <si>
-    <t>Number =</t>
   </si>
   <si>
     <t>Span(m)=</t>
   </si>
   <si>
     <t>Cuff radius(m)=</t>
+  </si>
+  <si>
+    <t>span(m) =</t>
+  </si>
+  <si>
+    <t>chord(m) =</t>
+  </si>
+  <si>
+    <t>Foil Name =</t>
+  </si>
+  <si>
+    <t>Twist(deg) =</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +121,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +146,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -187,27 +199,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -220,6 +264,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,410 +570,410 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3">
+        <v>3.5814071628143256E-2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3.9370078740157487E-2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4.2926085852171704E-2</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4.7005334010668025E-2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5.4066548133096269E-2</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6.1148082296164599E-2</v>
+      </c>
+      <c r="H1" s="3">
+        <v>6.8229616459232922E-2</v>
+      </c>
+      <c r="I1" s="3">
+        <v>7.5311150622301246E-2</v>
+      </c>
+      <c r="J1" s="3">
+        <v>8.2392684785369569E-2</v>
+      </c>
+      <c r="K1" s="3">
+        <v>8.9474218948437906E-2</v>
+      </c>
+      <c r="L1" s="3">
+        <v>9.6555753111506229E-2</v>
+      </c>
+      <c r="M1" s="3">
+        <v>0.10363728727457455</v>
+      </c>
+      <c r="N1" s="3">
+        <v>0.11071882143764288</v>
+      </c>
+      <c r="O1" s="3">
+        <v>0.11780035560071121</v>
+      </c>
+      <c r="P1" s="3">
+        <v>0.12488188976377954</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>0.13196342392684787</v>
+      </c>
+      <c r="R1" s="3">
+        <v>0.1387680975361951</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>3.5814071628143256E-2</v>
-      </c>
-      <c r="C1">
-        <v>3.9370078740157487E-2</v>
-      </c>
-      <c r="D1">
-        <v>4.2926085852171704E-2</v>
-      </c>
-      <c r="E1">
-        <v>4.7005334010668025E-2</v>
-      </c>
-      <c r="F1">
-        <v>5.4066548133096269E-2</v>
-      </c>
-      <c r="G1">
-        <v>6.1148082296164599E-2</v>
-      </c>
-      <c r="H1">
-        <v>6.8229616459232922E-2</v>
-      </c>
-      <c r="I1">
-        <v>7.5311150622301246E-2</v>
-      </c>
-      <c r="J1">
-        <v>8.2392684785369569E-2</v>
-      </c>
-      <c r="K1">
-        <v>8.9474218948437906E-2</v>
-      </c>
-      <c r="L1">
-        <v>9.6555753111506229E-2</v>
-      </c>
-      <c r="M1">
-        <v>0.10363728727457455</v>
-      </c>
-      <c r="N1">
-        <v>0.11071882143764288</v>
-      </c>
-      <c r="O1">
-        <v>0.11780035560071121</v>
-      </c>
-      <c r="P1">
-        <v>0.12488188976377954</v>
-      </c>
-      <c r="Q1">
-        <v>0.13196342392684787</v>
-      </c>
-      <c r="R1">
-        <v>0.1387680975361951</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f t="shared" ref="B2:R2" si="0">B1/$A8</f>
         <v>0.25636414909193456</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f t="shared" si="0"/>
         <v>0.28181874545567281</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f t="shared" si="0"/>
         <v>0.30727334181941091</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f t="shared" si="0"/>
         <v>0.33647340021952776</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f t="shared" si="0"/>
         <v>0.38701895585609358</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f t="shared" si="0"/>
         <v>0.43770996632902365</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>H1/$A8</f>
         <v>0.48840097680195366</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f t="shared" si="0"/>
         <v>0.53909198727488372</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f t="shared" si="0"/>
         <v>0.58978299774781373</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f t="shared" si="0"/>
         <v>0.64047400822074385</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f t="shared" si="0"/>
         <v>0.69116501869367386</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f t="shared" si="0"/>
         <v>0.74185602916660387</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f t="shared" si="0"/>
         <v>0.79254703963953388</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <f t="shared" si="0"/>
         <v>0.843238050112464</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <f t="shared" si="0"/>
         <v>0.89392906058539401</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <f t="shared" si="0"/>
         <v>0.94462007105832413</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <f t="shared" si="0"/>
         <v>0.99332925938579175</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.3446786893573789E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.3228346456692913E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.3088646177292355E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.3014986029972061E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.3045466090932182E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.3200406400812803E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.3378206756413514E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.3484886969773942E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.3416306832613667E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2.3075946151892304E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2.2367284734569472E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2.1186182372364745E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1.9433578867157734E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1.7015494030988065E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1.3830327660655322E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>9.7967995935991873E-3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>3.7109474218948442E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>26.163599999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>24.200399999999998</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22.5105</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20.8429</v>
+      </c>
+      <c r="F4" s="3">
+        <v>18.482600000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>16.6127</v>
+      </c>
+      <c r="H4" s="3">
+        <v>15.1037</v>
+      </c>
+      <c r="I4" s="3">
+        <v>13.865600000000001</v>
+      </c>
+      <c r="J4" s="3">
+        <v>12.8308</v>
+      </c>
+      <c r="K4" s="3">
+        <v>11.946099999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>11.180199999999999</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10.510300000000001</v>
+      </c>
+      <c r="N4" s="3">
+        <v>9.9206000000000003</v>
+      </c>
+      <c r="O4" s="3">
+        <v>9.3472000000000008</v>
+      </c>
+      <c r="P4" s="3">
+        <v>8.8089999999999993</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>8.98</v>
+      </c>
+      <c r="R4" s="3">
+        <v>10.5145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>2.3446786893573789E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.3228346456692913E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2.3088646177292355E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.3014986029972061E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2.3045466090932182E-2</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2.3200406400812803E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2.3378206756413514E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2.3484886969773942E-2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2.3416306832613667E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>2.3075946151892304E-2</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2.2367284734569472E-2</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2.1186182372364745E-2</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1.9433578867157734E-2</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1.7015494030988065E-2</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1.3830327660655322E-2</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>9.7967995935991873E-3</v>
-      </c>
-      <c r="R3" s="2">
-        <v>3.7109474218948442E-3</v>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6">
+        <v>9</v>
+      </c>
+      <c r="K5" s="6">
+        <v>10</v>
+      </c>
+      <c r="L5" s="6">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6">
+        <v>12</v>
+      </c>
+      <c r="N5" s="6">
+        <v>13</v>
+      </c>
+      <c r="O5" s="6">
+        <v>14</v>
+      </c>
+      <c r="P5" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>16</v>
+      </c>
+      <c r="R5" s="6">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>26.163599999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>24.200399999999998</v>
-      </c>
-      <c r="D4" s="2">
-        <v>22.5105</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20.8429</v>
-      </c>
-      <c r="F4" s="2">
-        <v>18.482600000000001</v>
-      </c>
-      <c r="G4" s="2">
-        <v>16.6127</v>
-      </c>
-      <c r="H4" s="2">
-        <v>15.1037</v>
-      </c>
-      <c r="I4" s="2">
-        <v>13.865600000000001</v>
-      </c>
-      <c r="J4" s="2">
-        <v>12.8308</v>
-      </c>
-      <c r="K4" s="2">
-        <v>11.946099999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <v>11.180199999999999</v>
-      </c>
-      <c r="M4" s="2">
-        <v>10.510300000000001</v>
-      </c>
-      <c r="N4" s="2">
-        <v>9.9206000000000003</v>
-      </c>
-      <c r="O4" s="2">
-        <v>9.3472000000000008</v>
-      </c>
-      <c r="P4" s="2">
-        <v>8.8089999999999993</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>8.98</v>
-      </c>
-      <c r="R4" s="2">
-        <v>10.5145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4">
-        <v>7</v>
-      </c>
-      <c r="I5" s="4">
-        <v>8</v>
-      </c>
-      <c r="J5" s="4">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4">
-        <v>10</v>
-      </c>
-      <c r="L5" s="4">
-        <v>11</v>
-      </c>
-      <c r="M5" s="4">
-        <v>12</v>
-      </c>
-      <c r="N5" s="4">
-        <v>13</v>
-      </c>
-      <c r="O5" s="4">
-        <v>14</v>
-      </c>
-      <c r="P5" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>16</v>
-      </c>
-      <c r="R5" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f>B1-B8</f>
         <v>2.3314071628143255E-2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f>C1-B1</f>
         <v>3.5560071120142311E-3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" ref="D6:N6" si="1">D1-C1</f>
         <v>3.5560071120142173E-3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>4.0792481584963208E-3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>7.0612141224282443E-3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>7.0815341630683301E-3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f t="shared" si="1"/>
         <v>7.0815341630683232E-3</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>7.0815341630683232E-3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>7.0815341630683232E-3</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f t="shared" si="1"/>
         <v>7.0815341630683371E-3</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f t="shared" si="1"/>
         <v>7.0815341630683232E-3</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>7.0815341630683232E-3</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f t="shared" si="1"/>
         <v>7.0815341630683232E-3</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <f>O1-N1</f>
         <v>7.0815341630683371E-3</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <f t="shared" ref="P6:R6" si="2">P1-O1</f>
         <v>7.0815341630683232E-3</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <f t="shared" si="2"/>
         <v>7.0815341630683371E-3</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <f t="shared" si="2"/>
         <v>6.8046736093472227E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>0.13969999999999999</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
